--- a/output/mo_closure_summary.xlsx
+++ b/output/mo_closure_summary.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,30 +454,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NE MO SPECL. ED. COOP</t>
+          <t>MILAN MIDDLE</t>
         </is>
       </c>
       <c r="D3">
-        <v>1010</v>
+        <v>3000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SHELBY CO. R-IV</t>
+          <t>MILAN C-2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>102085</t>
+          <t>105124</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>292811002882</t>
+          <t>292094002888</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>187</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -495,30 +495,30 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MILAN MIDDLE</t>
+          <t>BELGRADE ELEM.</t>
         </is>
       </c>
       <c r="D4">
-        <v>3000</v>
+        <v>4020</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>MILAN C-2</t>
+          <t>VALLEY R-VI</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>105124</t>
+          <t>110031</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>292094002888</t>
+          <t>293072002117</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -536,30 +536,30 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BELGRADE ELEM.</t>
+          <t>LANGSTON MIDDLE</t>
         </is>
       </c>
       <c r="D5">
-        <v>4020</v>
+        <v>3240</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VALLEY R-VI</t>
+          <t>ST. LOUIS CITY</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>110031</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>293072002117</t>
+          <t>292928001957</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>182</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -577,11 +577,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>LANGSTON MIDDLE</t>
+          <t>COTE BRILLIANTE ELEM.</t>
         </is>
       </c>
       <c r="D6">
-        <v>3240</v>
+        <v>4440</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -595,12 +595,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>292928001957</t>
+          <t>292928001911</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>169</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -611,37 +611,37 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B7">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>COTE BRILLIANTE ELEM.</t>
+          <t>PURDY MIDDLE</t>
         </is>
       </c>
       <c r="D7">
-        <v>4440</v>
+        <v>3000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ST. LOUIS CITY</t>
+          <t>PURDY R-II</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>005124</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>292928001911</t>
+          <t>292562002221</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>205</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -659,30 +659,30 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PURDY MIDDLE</t>
+          <t>HUMBOLDT ELEM.</t>
         </is>
       </c>
       <c r="D8">
-        <v>3000</v>
+        <v>4200</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PURDY R-II</t>
+          <t>ST. JOSEPH</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>005124</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>292562002221</t>
+          <t>292706001658</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>333</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -700,11 +700,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HUMBOLDT ELEM.</t>
+          <t>LAKE ELEM.</t>
         </is>
       </c>
       <c r="D9">
-        <v>4200</v>
+        <v>4240</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -718,12 +718,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>292706001658</t>
+          <t>292706001661</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>315</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -741,30 +741,30 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>LAKE ELEM.</t>
+          <t>GARRISON ELEM.</t>
         </is>
       </c>
       <c r="D10">
-        <v>4240</v>
+        <v>4030</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ST. JOSEPH</t>
+          <t>CHILLICOTHE R-II</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>059117</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>292706001661</t>
+          <t>290876000260</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>123</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -782,30 +782,30 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GARRISON ELEM.</t>
+          <t>WALLACE MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="D11">
-        <v>4030</v>
+        <v>4020</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CHILLICOTHE R-II</t>
+          <t>HAYTI R-II</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>059117</t>
+          <t>078002</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>290876000260</t>
+          <t>291380000610</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>164</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -823,30 +823,30 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NW MO SPECL. ED. COOP.</t>
+          <t>RICHLAND JR. HIGH</t>
         </is>
       </c>
       <c r="D12">
-        <v>1010</v>
+        <v>2050</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MARYVILLE R-II</t>
+          <t>RICHLAND R-IV</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>074201</t>
+          <t>085044</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>292049002294</t>
+          <t>292643003029</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -857,37 +857,37 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WALLACE MIDDLE SCHOOL</t>
+          <t>RUTH MERCER ELEM.</t>
         </is>
       </c>
       <c r="D13">
-        <v>4020</v>
+        <v>4060</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HAYTI R-II</t>
+          <t>WARSAW R-IX</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>078002</t>
+          <t>008107</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>291380000610</t>
+          <t>293107000834</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>118</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -898,37 +898,37 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RICHLAND JR. HIGH</t>
+          <t>SCOTT ELEM.</t>
         </is>
       </c>
       <c r="D14">
-        <v>2050</v>
+        <v>4050</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>RICHLAND R-IV</t>
+          <t>BELTON 124</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>085044</t>
+          <t>019152</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>292643003029</t>
+          <t>290462000054</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>238</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -946,30 +946,30 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>RUTH MERCER ELEM.</t>
+          <t>HICKMAN MILLS FRESHMAN CENTER</t>
         </is>
       </c>
       <c r="D15">
-        <v>4060</v>
+        <v>1060</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WARSAW R-IX</t>
+          <t>HICKMAN MILLS C-1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>008107</t>
+          <t>048072</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>293107000834</t>
+          <t>291434003249</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>322</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -987,30 +987,30 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SCOTT ELEM.</t>
+          <t>JOHNSON ELEM.</t>
         </is>
       </c>
       <c r="D16">
-        <v>4050</v>
+        <v>4020</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BELTON 124</t>
+          <t>HICKMAN MILLS C-1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>019152</t>
+          <t>048072</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>290462000054</t>
+          <t>291434002595</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>323</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HICKMAN MILLS FRESHMAN CENTER</t>
+          <t>SYMINGTON ELEM.</t>
         </is>
       </c>
       <c r="D17">
-        <v>1060</v>
+        <v>4025</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>291434003249</t>
+          <t>291434000662</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>331</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1069,30 +1069,30 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>JOHNSON ELEM.</t>
+          <t>KANSAS CITY NEIGHBORHOOD ACAD</t>
         </is>
       </c>
       <c r="D18">
-        <v>4020</v>
+        <v>6960</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HICKMAN MILLS C-1</t>
+          <t>KANSAS CITY 33</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>048072</t>
+          <t>048078</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>291434002595</t>
+          <t>291640003294</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>243</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1110,30 +1110,30 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SYMINGTON ELEM.</t>
+          <t>BERKELEY MIDDLE</t>
         </is>
       </c>
       <c r="D19">
-        <v>4025</v>
+        <v>3000</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HICKMAN MILLS C-1</t>
+          <t>FERGUSON-FLORISSANT R-II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>048072</t>
+          <t>096089</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>291434000662</t>
+          <t>291201000354</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>340</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1151,30 +1151,30 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KANSAS CITY NEIGHBORHOOD ACAD</t>
+          <t>AIRPORT ELEM.</t>
         </is>
       </c>
       <c r="D20">
-        <v>6960</v>
+        <v>4010</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KANSAS CITY 33</t>
+          <t>FERGUSON-FLORISSANT R-II</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>048078</t>
+          <t>096089</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>291640003294</t>
+          <t>291201000449</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>213</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1192,30 +1192,30 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EXCEPTIONAL PUPIL COOP</t>
+          <t>COOL VALLEY ELEM.</t>
         </is>
       </c>
       <c r="D21">
-        <v>1010</v>
+        <v>4100</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FAIR PLAY R-II</t>
+          <t>FERGUSON-FLORISSANT R-II</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>084002</t>
+          <t>096089</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>291173003214</t>
+          <t>291201000457</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>191</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1233,11 +1233,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BERKELEY MIDDLE</t>
+          <t>VOGT ELEM.</t>
         </is>
       </c>
       <c r="D22">
-        <v>3000</v>
+        <v>4280</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>291201000354</t>
+          <t>291201001092</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>244</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1267,37 +1267,37 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AIRPORT ELEM.</t>
+          <t>AUXVASSE ELEM.</t>
         </is>
       </c>
       <c r="D23">
-        <v>4010</v>
+        <v>4020</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FERGUSON-FLORISSANT R-II</t>
+          <t>NORTH CALLAWAY CO. R-I</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>096089</t>
+          <t>014126</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>291201000449</t>
+          <t>292274001252</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>308</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1308,37 +1308,37 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COOL VALLEY ELEM.</t>
+          <t>ADAMS PRIMARY SCHOOL</t>
         </is>
       </c>
       <c r="D24">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FERGUSON-FLORISSANT R-II</t>
+          <t>CARROLLTON R-VII</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>096089</t>
+          <t>017125</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>291201000457</t>
+          <t>290738003131</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>177</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1349,37 +1349,37 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B25">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>VOGT ELEM.</t>
+          <t>CLARK-VITT ELEM.</t>
         </is>
       </c>
       <c r="D25">
-        <v>4280</v>
+        <v>4010</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FERGUSON-FLORISSANT R-II</t>
+          <t>UNION R-XI</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>096089</t>
+          <t>036131</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>291201001092</t>
+          <t>293057002096</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>548</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1390,37 +1390,37 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B26">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>7th and 8th Grade Center</t>
+          <t>PORTLAND ELEM.</t>
         </is>
       </c>
       <c r="D26">
-        <v>3000</v>
+        <v>4520</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NORMANDY SCHOOLS COLLABORATIVE</t>
+          <t>SPRINGFIELD R-XII</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>096109</t>
+          <t>039141</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>292265001244</t>
+          <t>292886001817</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>240</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1431,37 +1431,37 @@
     </row>
     <row r="27">
       <c r="A27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B27">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>TRI-LAKES SPECL. EDUC. COOP.</t>
+          <t>ROBINSON ELEM.</t>
         </is>
       </c>
       <c r="D27">
-        <v>1010</v>
+        <v>4040</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BLUE EYE R-V</t>
+          <t>AURORA R-VIII</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>104045</t>
+          <t>055110</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>290528002518</t>
+          <t>290402000033</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>259</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1479,30 +1479,30 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TRI-LAKES SPECL. EDUC. COOP.</t>
+          <t>EAST PRAIRIE JR. HIGH</t>
         </is>
       </c>
       <c r="D28">
-        <v>1010</v>
+        <v>2050</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SHELL KNOB 78</t>
+          <t>EAST PRAIRIE R-II</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>005127</t>
+          <t>067055</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>292820003350</t>
+          <t>291122002757</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>180</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1520,30 +1520,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AUXVASSE ELEM.</t>
+          <t>R. A. DOYLE ELEM.</t>
         </is>
       </c>
       <c r="D29">
-        <v>4020</v>
+        <v>4040</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NORTH CALLAWAY CO. R-I</t>
+          <t>EAST PRAIRIE R-II</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>014126</t>
+          <t>067055</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>292274001252</t>
+          <t>291122000387</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>308</t>
+          <t>265</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1561,30 +1561,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ADAMS PRIMARY SCHOOL</t>
+          <t>A. J. MARTIN ELEM.</t>
         </is>
       </c>
       <c r="D30">
-        <v>4000</v>
+        <v>4060</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>CARROLLTON R-VII</t>
+          <t>EAST PRAIRIE R-II</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>017125</t>
+          <t>067055</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>290738003131</t>
+          <t>291122000385</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>341</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CLARK-VITT ELEM.</t>
+          <t>BARRY SCH.</t>
         </is>
       </c>
       <c r="D31">
@@ -1610,22 +1610,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>UNION R-XI</t>
+          <t>PLATTE CO. R-III</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>036131</t>
+          <t>083003</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>293057002096</t>
+          <t>NULL</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>548</t>
+          <t>430</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1643,30 +1643,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PORTLAND ELEM.</t>
+          <t>LAQUEY R-V MIDDLE</t>
         </is>
       </c>
       <c r="D32">
-        <v>4520</v>
+        <v>3000</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SPRINGFIELD R-XII</t>
+          <t>LAQUEY R-V</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>039141</t>
+          <t>085045</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>292886001817</t>
+          <t>291788001027</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>149</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1684,30 +1684,30 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ROBINSON ELEM.</t>
+          <t>NORTHWEST ELEM.</t>
         </is>
       </c>
       <c r="D33">
-        <v>4040</v>
+        <v>4080</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AURORA R-VIII</t>
+          <t>MARSHALL</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>055110</t>
+          <t>097129</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>290402000033</t>
+          <t>292041001085</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>242</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1725,30 +1725,30 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EAST PRAIRIE JR. HIGH</t>
+          <t>Spainhower School</t>
         </is>
       </c>
       <c r="D34">
-        <v>2050</v>
+        <v>7500</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>EAST PRAIRIE R-II</t>
+          <t>MARSHALL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>067055</t>
+          <t>097129</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>291122002757</t>
+          <t>292041003319</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>125</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1766,30 +1766,30 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R. A. DOYLE ELEM.</t>
+          <t>CLARENCE ELEM.</t>
         </is>
       </c>
       <c r="D35">
-        <v>4040</v>
+        <v>4020</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>EAST PRAIRIE R-II</t>
+          <t>SHELBY CO. R-IV</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>067055</t>
+          <t>102085</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>291122000387</t>
+          <t>292811001724</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1800,37 +1800,37 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B36">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A. J. MARTIN ELEM.</t>
+          <t>STEGER SIXTH GRADE CTR.</t>
         </is>
       </c>
       <c r="D36">
-        <v>4060</v>
+        <v>4180</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>EAST PRAIRIE R-II</t>
+          <t>WEBSTER GROVES</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>067055</t>
+          <t>096114</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>291122000385</t>
+          <t>293153002195</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>347</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1841,37 +1841,37 @@
     </row>
     <row r="37">
       <c r="A37">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B37">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BARRY SCH.</t>
+          <t>TRANSPORTATION AND LAW</t>
         </is>
       </c>
       <c r="D37">
-        <v>4010</v>
+        <v>1540</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>PLATTE CO. R-III</t>
+          <t>ST. LOUIS CITY</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>083003</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>292928002875</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>156</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1882,37 +1882,37 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B38">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>LAQUEY R-V MIDDLE</t>
+          <t>FANNING MIDDLE COMMUNITY ED.</t>
         </is>
       </c>
       <c r="D38">
-        <v>3000</v>
+        <v>3140</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LAQUEY R-V</t>
+          <t>ST. LOUIS CITY</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>085045</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>291788001027</t>
+          <t>292928001922</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>166</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1923,37 +1923,37 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B39">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NORTHWEST ELEM.</t>
+          <t>CLAY ELEM.</t>
         </is>
       </c>
       <c r="D39">
-        <v>4080</v>
+        <v>4360</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MARSHALL</t>
+          <t>ST. LOUIS CITY</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>097129</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>292041001085</t>
+          <t>292928001903</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>96</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1964,37 +1964,37 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B40">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Spainhower School</t>
+          <t>DUNBAR AND BR.</t>
         </is>
       </c>
       <c r="D40">
-        <v>7500</v>
+        <v>4480</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MARSHALL</t>
+          <t>ST. LOUIS CITY</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>097129</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>292041003319</t>
+          <t>292928001916</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>146</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2005,37 +2005,37 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B41">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CLARENCE ELEM.</t>
+          <t>FARRAGUT ELEM.</t>
         </is>
       </c>
       <c r="D41">
-        <v>4020</v>
+        <v>4580</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SHELBY CO. R-IV</t>
+          <t>ST. LOUIS CITY</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>102085</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>292811001724</t>
+          <t>292928001923</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>159</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2053,30 +2053,30 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>STEGER SIXTH GRADE CTR.</t>
+          <t>FORD-FORD BR. ELEM. COMM. ED.</t>
         </is>
       </c>
       <c r="D42">
-        <v>4180</v>
+        <v>4630</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>WEBSTER GROVES</t>
+          <t>ST. LOUIS CITY</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>096114</t>
+          <t>115115</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>293153002195</t>
+          <t>292928002571</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>143</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2087,37 +2087,37 @@
     </row>
     <row r="43">
       <c r="A43">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B43">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TRANSPORTATION AND LAW</t>
+          <t>CENTRAL PARK ELEM.</t>
         </is>
       </c>
       <c r="D43">
-        <v>1540</v>
+        <v>4000</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ST. LOUIS CITY</t>
+          <t>MONETT R-I</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>005128</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>292928002875</t>
+          <t>292112003089</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>339</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2128,37 +2128,37 @@
     </row>
     <row r="44">
       <c r="A44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B44">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FANNING MIDDLE COMMUNITY ED.</t>
+          <t>COLE CAMP MIDDLE</t>
         </is>
       </c>
       <c r="D44">
-        <v>3140</v>
+        <v>3000</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ST. LOUIS CITY</t>
+          <t>COLE CAMP R-I</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>008111</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>292928001922</t>
+          <t>290990001389</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>236</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2169,37 +2169,37 @@
     </row>
     <row r="45">
       <c r="A45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CLAY ELEM.</t>
+          <t>COLE CO. R-I MIDDLE</t>
         </is>
       </c>
       <c r="D45">
-        <v>4360</v>
+        <v>3000</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ST. LOUIS CITY</t>
+          <t>COLE CO. R-I</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>026001</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>292928001903</t>
+          <t>292697000847</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>133</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2210,37 +2210,37 @@
     </row>
     <row r="46">
       <c r="A46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B46">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DUNBAR AND BR.</t>
+          <t>COLUMBIA ELEM.</t>
         </is>
       </c>
       <c r="D46">
-        <v>4480</v>
+        <v>4040</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ST. LOUIS CITY</t>
+          <t>JOPLIN SCHOOLS</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>049148</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>292928001916</t>
+          <t>291635000772</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>155</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -2251,37 +2251,37 @@
     </row>
     <row r="47">
       <c r="A47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FARRAGUT ELEM.</t>
+          <t>WEST CENTRAL ELEM.</t>
         </is>
       </c>
       <c r="D47">
-        <v>4580</v>
+        <v>4360</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ST. LOUIS CITY</t>
+          <t>JOPLIN SCHOOLS</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>049148</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>292928001923</t>
+          <t>291635000793</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>192</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2292,37 +2292,37 @@
     </row>
     <row r="48">
       <c r="A48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B48">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>FORD-FORD BR. ELEM. COMM. ED.</t>
+          <t>MORGAN CO. SOUTH ELEM.</t>
         </is>
       </c>
       <c r="D48">
-        <v>4630</v>
+        <v>4040</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ST. LOUIS CITY</t>
+          <t>MORGAN CO. R-II</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>115115</t>
+          <t>071092</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>292928002571</t>
+          <t>293084002132</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>66</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2333,37 +2333,37 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B49">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CENTRAL PARK ELEM.</t>
+          <t>MARK TWAIN ELEM.</t>
         </is>
       </c>
       <c r="D49">
-        <v>4000</v>
+        <v>4280</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MONETT R-I</t>
+          <t>ST. JOSEPH</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>005128</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>292112003089</t>
+          <t>292706001663</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>315</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2374,37 +2374,37 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B50">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>COLE CAMP MIDDLE</t>
+          <t>CALHOUN HIGH</t>
         </is>
       </c>
       <c r="D50">
-        <v>3000</v>
+        <v>1050</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>COLE CAMP R-I</t>
+          <t>CALHOUN R-VIII</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>008111</t>
+          <t>042117</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>290990001389</t>
+          <t>290648000166</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2415,37 +2415,37 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B51">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EXCEPTIONAL PUPIL COOP. - ECSE</t>
+          <t>BLUE SPRINGS HIGH SCHOOL CAMPU</t>
         </is>
       </c>
       <c r="D51">
-        <v>1010</v>
+        <v>1060</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>STOCKTON R-I</t>
+          <t>BLUE SPRINGS R-IV</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>048068</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>292952003351</t>
+          <t>290531002735</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>*</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2456,37 +2456,37 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B52">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>COLE CO. R-I MIDDLE</t>
+          <t>LONGFELLOW ELEMENTARY</t>
         </is>
       </c>
       <c r="D52">
-        <v>3000</v>
+        <v>4880</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>COLE CO. R-I</t>
+          <t>KANSAS CITY 33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>026001</t>
+          <t>048078</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>292697000847</t>
+          <t>291640000848</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>232</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2497,37 +2497,37 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B53">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HIGH GROVE Early Childhood</t>
+          <t>TROOST ELEMENTARY</t>
         </is>
       </c>
       <c r="D53">
-        <v>5000</v>
+        <v>5580</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>GRANDVIEW C-4</t>
+          <t>KANSAS CITY 33</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>048074</t>
+          <t>048078</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>NULL</t>
+          <t>291640000879</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>252</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -2538,37 +2538,37 @@
     </row>
     <row r="54">
       <c r="A54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B54">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>COLUMBIA ELEM.</t>
+          <t>MARCELINE MIDDLE</t>
         </is>
       </c>
       <c r="D54">
-        <v>4040</v>
+        <v>3050</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>JOPLIN SCHOOLS</t>
+          <t>MARCELINE R-V</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>049148</t>
+          <t>058109</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>291635000772</t>
+          <t>292005002503</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>135</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -2579,37 +2579,37 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B55">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>WEST CENTRAL ELEM.</t>
+          <t>CENTRAL ELEM.</t>
         </is>
       </c>
       <c r="D55">
-        <v>4360</v>
+        <v>4040</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>JOPLIN SCHOOLS</t>
+          <t>NEOSHO SCHOOL DISTRICT</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>049148</t>
+          <t>073108</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>291635000793</t>
+          <t>292181001204</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>160</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2620,37 +2620,37 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B56">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>MORGAN CO. SOUTH ELEM.</t>
+          <t>BARRY SCH.</t>
         </is>
       </c>
       <c r="D56">
-        <v>4040</v>
+        <v>3010</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MORGAN CO. R-II</t>
+          <t>PLATTE CO. R-III</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>071092</t>
+          <t>083003</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>293084002132</t>
+          <t>292523001451</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>451</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -2668,30 +2668,30 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MARK TWAIN ELEM.</t>
+          <t>JANA ELEM.</t>
         </is>
       </c>
       <c r="D57">
-        <v>4280</v>
+        <v>4300</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ST. JOSEPH</t>
+          <t>HAZELWOOD</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>096088</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>292706001663</t>
+          <t>291383000627</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>420</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -2709,30 +2709,30 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Virtual Academy</t>
+          <t>LUCAS CROSSING ELEM. COMPLEX</t>
         </is>
       </c>
       <c r="D58">
-        <v>8000</v>
+        <v>4145</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ST. JOSEPH</t>
+          <t>NORMANDY SCHOOLS COLLABORATIVE</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>096109</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3404</t>
+          <t>292265002850</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>636</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -2750,30 +2750,30 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CALHOUN HIGH</t>
+          <t>SOUTHEAST ELEM.</t>
         </is>
       </c>
       <c r="D59">
-        <v>1050</v>
+        <v>5000</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CALHOUN R-VIII</t>
+          <t>MARSHALL</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>042117</t>
+          <t>097129</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>290648000166</t>
+          <t>292041001087</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>121</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -2791,402 +2791,33 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>BLUE SPRINGS HIGH SCHOOL CAMPU</t>
+          <t>NIANGUA MIDDLE SCHOOL</t>
         </is>
       </c>
       <c r="D60">
-        <v>1060</v>
+        <v>3000</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>BLUE SPRINGS R-IV</t>
+          <t>NIANGUA R-V</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>048068</t>
+          <t>112099</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>290531002735</t>
+          <t>292250003343</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61">
-        <v>2023</v>
-      </c>
-      <c r="B61">
-        <v>2023</v>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>LONGFELLOW ELEMENTARY</t>
-        </is>
-      </c>
-      <c r="D61">
-        <v>4880</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>KANSAS CITY 33</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>048078</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>291640000848</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62">
-        <v>2023</v>
-      </c>
-      <c r="B62">
-        <v>2023</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>TROOST ELEMENTARY</t>
-        </is>
-      </c>
-      <c r="D62">
-        <v>5580</v>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>KANSAS CITY 33</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>048078</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>291640000879</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>252</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63">
-        <v>2023</v>
-      </c>
-      <c r="B63">
-        <v>2023</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>MARCELINE MIDDLE</t>
-        </is>
-      </c>
-      <c r="D63">
-        <v>3050</v>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>MARCELINE R-V</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>058109</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>292005002503</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64">
-        <v>2023</v>
-      </c>
-      <c r="B64">
-        <v>2023</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>CENTRAL ELEM.</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>4040</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>NEOSHO SCHOOL DISTRICT</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>073108</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>292181001204</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65">
-        <v>2023</v>
-      </c>
-      <c r="B65">
-        <v>2023</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>BARRY SCH.</t>
-        </is>
-      </c>
-      <c r="D65">
-        <v>3010</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>PLATTE CO. R-III</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>083003</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>292523001451</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>451</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66">
-        <v>2023</v>
-      </c>
-      <c r="B66">
-        <v>2023</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>JANA ELEM.</t>
-        </is>
-      </c>
-      <c r="D66">
-        <v>4300</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>HAZELWOOD</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>096088</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>291383000627</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67">
-        <v>2023</v>
-      </c>
-      <c r="B67">
-        <v>2023</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>LUCAS CROSSING ELEM. COMPLEX</t>
-        </is>
-      </c>
-      <c r="D67">
-        <v>4145</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>NORMANDY SCHOOLS COLLABORATIVE</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>096109</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>292265002850</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>636</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68">
-        <v>2023</v>
-      </c>
-      <c r="B68">
-        <v>2023</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SOUTHEAST ELEM.</t>
-        </is>
-      </c>
-      <c r="D68">
-        <v>5000</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>MARSHALL</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>097129</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>292041001087</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69">
-        <v>2023</v>
-      </c>
-      <c r="B69">
-        <v>2023</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>NIANGUA MIDDLE SCHOOL</t>
-        </is>
-      </c>
-      <c r="D69">
-        <v>3000</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>NIANGUA R-V</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>112099</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>292250003343</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
         <is>
           <t>N</t>
         </is>
